--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-737202.7091375004</v>
+        <v>-739737.6800133549</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,10 +674,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>117.4137306658387</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.238882005935936</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>68.51346540566161</v>
       </c>
       <c r="U4" t="n">
-        <v>270.3673872248606</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>27.3409472319357</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>280.7601617800798</v>
       </c>
       <c r="E5" t="n">
-        <v>92.01936427017797</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>94.53524373589066</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>241.0671436456188</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>237.7392564328505</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>94.56148769087737</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>175.296429831258</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>126.0694959538581</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.8566599330997</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>112.5284434523311</v>
+        <v>74.95497330697968</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>31.66396365647122</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>116.287325111933</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>211.147499124903</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2124.186667467492</v>
+        <v>2012.898941548399</v>
       </c>
       <c r="C2" t="n">
-        <v>1755.224150527081</v>
+        <v>1643.936424607987</v>
       </c>
       <c r="D2" t="n">
-        <v>1396.95845192033</v>
+        <v>1285.670726001237</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.170199322086</v>
+        <v>899.8824734029924</v>
       </c>
       <c r="F2" t="n">
-        <v>600.1842945324786</v>
+        <v>488.8965686133849</v>
       </c>
       <c r="G2" t="n">
-        <v>185.1118443774751</v>
+        <v>73.82411845838135</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>73.82411845838135</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792694</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2510.786507531614</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>2510.786507531614</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>479.6639240396553</v>
+        <v>2027.419076256901</v>
       </c>
       <c r="C4" t="n">
-        <v>310.7277411117484</v>
+        <v>1858.482893328995</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7277411117484</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>2974.883959581746</v>
       </c>
       <c r="U4" t="n">
-        <v>1654.19617715429</v>
+        <v>2974.883959581746</v>
       </c>
       <c r="V4" t="n">
-        <v>1399.511688948403</v>
+        <v>2947.26684116565</v>
       </c>
       <c r="W4" t="n">
-        <v>1110.094518911442</v>
+        <v>2657.849671128689</v>
       </c>
       <c r="X4" t="n">
-        <v>882.1049680134252</v>
+        <v>2429.860120230671</v>
       </c>
       <c r="Y4" t="n">
-        <v>661.312388869895</v>
+        <v>2209.067541087141</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542236</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="D5" t="n">
-        <v>1027.516222935485</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546769</v>
+        <v>2288.135186201106</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.2707086397594</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>556.3345257118525</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>406.2178862995167</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>981.2370163118838</v>
       </c>
       <c r="X7" t="n">
-        <v>906.9191734699991</v>
+        <v>753.2474654138665</v>
       </c>
       <c r="Y7" t="n">
-        <v>906.9191734699991</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2185.045504370169</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1816.082987429757</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
         <v>1190.154071768027</v>
@@ -4796,22 +4796,22 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410102</v>
+        <v>2660.290274561115</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410102</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410102</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="Y8" t="n">
-        <v>2571.645344434291</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,19 +4878,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859227991</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031464</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215812</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.4618728343355</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343355</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1660.396990006366</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1438.630374575892</v>
+        <v>1615.697475415548</v>
       </c>
       <c r="U10" t="n">
-        <v>1149.527507701536</v>
+        <v>1326.594608541191</v>
       </c>
       <c r="V10" t="n">
-        <v>1149.527507701536</v>
+        <v>1199.251683335274</v>
       </c>
       <c r="W10" t="n">
-        <v>860.1103376645752</v>
+        <v>1199.251683335274</v>
       </c>
       <c r="X10" t="n">
-        <v>860.1103376645752</v>
+        <v>1199.251683335274</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.1103376645752</v>
+        <v>978.4591041917437</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5361,22 +5361,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>626.3497813227614</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>478.4366877403683</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.7012443408906</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>267.5122958789771</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075813</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6245,16 +6245,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6643,22 +6643,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
         <v>974.1018203925706</v>
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,16 +6716,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6926,22 +6926,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,13 +7828,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>177.1940337214817</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>34.33804776699002</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,16 +22708,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>159.0991137110552</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>151.0354838705076</v>
       </c>
       <c r="U4" t="n">
-        <v>15.8444509807523</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9753202488376</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>32.89260457060011</v>
+        <v>70.46607471595156</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016491</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.8601746357976</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.90318636666117</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25126,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
         <v>242143.9799070018</v>
@@ -26341,13 +26341,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>104482.7459291435</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19125.28055596329</v>
+        <v>19125.28055596326</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26436,28 +26436,28 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.6113399485</v>
       </c>
       <c r="N4" t="n">
         <v>22207.61133994853</v>
       </c>
       <c r="O4" t="n">
+        <v>22207.61133994851</v>
+      </c>
+      <c r="P4" t="n">
         <v>22207.61133994853</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248532.84671948</v>
+        <v>-1248858.191809762</v>
       </c>
       <c r="C6" t="n">
-        <v>44974.80354968531</v>
+        <v>44974.8035496854</v>
       </c>
       <c r="D6" t="n">
-        <v>44974.80354968534</v>
+        <v>44974.80354968502</v>
       </c>
       <c r="E6" t="n">
-        <v>-198607.7638011154</v>
+        <v>-198642.5017265509</v>
       </c>
       <c r="F6" t="n">
-        <v>126804.6980062397</v>
+        <v>126769.960080804</v>
       </c>
       <c r="G6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.960080804</v>
       </c>
       <c r="H6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.9600808039</v>
       </c>
       <c r="I6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.960080804</v>
       </c>
       <c r="J6" t="n">
-        <v>-90726.50439103779</v>
+        <v>-90761.24231647357</v>
       </c>
       <c r="K6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.9600808039</v>
       </c>
       <c r="L6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.960080804</v>
       </c>
       <c r="M6" t="n">
-        <v>16458.05783627741</v>
+        <v>16458.05783627738</v>
       </c>
       <c r="N6" t="n">
         <v>120940.8037654212</v>
@@ -26722,10 +26722,10 @@
         <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.926694547973028</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>224.7966960918923</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>73.92287984060317</v>
       </c>
       <c r="E5" t="n">
-        <v>289.9110058020838</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>51.89871891067851</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>45.45585469097222</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>116.9437851878325</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>233.1907707792575</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>14.47259550018387</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>126.0681473699699</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026421</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>165.2255134509767</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32081,25 +32081,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,13 +32467,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597541</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>31.25110603664647</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
